--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -4148,7 +4148,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -14887,7 +14887,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Solar Los Vilos PMG</t>
+          <t>Proyecto de Adaptación Operacional</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parsosy Ra SpA</t>
+          <t>Minera Los Pelambres</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9000</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/04/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151393993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto de Adaptación Operacional</t>
+          <t>Proyecto Solar Los Vilos PMG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Minera Los Pelambres</t>
+          <t>Parsosy Ra SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>9000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151393993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GENERADORA SOL SOLIV Spa.</t>
+          <t>Generadora Sol Soliv SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -15559,7 +15559,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Concesiones del Elqui S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F317" t="n">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">

--- a/data/Los Vilos.xlsx
+++ b/data/Los Vilos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
